--- a/image/groupsummary.xlsx
+++ b/image/groupsummary.xlsx
@@ -895,10 +895,10 @@
     <t>GroupSummary.variableDefinition.variableRole</t>
   </si>
   <si>
-    <t>exposure | measuredVariable</t>
-  </si>
-  <si>
-    <t>exposure | measuredVariable.</t>
+    <t>exposure | referenceExposure | measuredVariable | confounder</t>
+  </si>
+  <si>
+    <t>exposure | referenceExposure | measuredVariable | confounder.</t>
   </si>
   <si>
     <t>The role that the GroupSummary variable plays.</t>
